--- a/MYFramework/src/main/java/helper/exceldata/LMS_TestDatavalidation.xlsx
+++ b/MYFramework/src/main/java/helper/exceldata/LMS_TestDatavalidation.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parag.borawake\git\NewFrameworks_1\MYFramework\src\main\java\helper\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4171A-1351-4E1A-B3F1-80ABEA4939D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE5C040-B773-467C-8D33-19058F4EDED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{88A90910-4565-483B-8D0E-2283B58769B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{88A90910-4565-483B-8D0E-2283B58769B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="LMSData" sheetId="1" r:id="rId1"/>
+    <sheet name="LMSData" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="SecurityDomain" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,7 +749,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
